--- a/Key.xlsx
+++ b/Key.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="615" windowWidth="19635" windowHeight="7425" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="615" windowWidth="19635" windowHeight="7425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="222">
   <si>
     <t>Description</t>
   </si>
@@ -624,12 +624,6 @@
     <t>feature</t>
   </si>
   <si>
-    <t>raw_weight</t>
-  </si>
-  <si>
-    <t>global_weight</t>
-  </si>
-  <si>
     <t>SHOOT HOUSE</t>
   </si>
   <si>
@@ -673,6 +667,24 @@
   </si>
   <si>
     <t>SquadLdr_Post</t>
+  </si>
+  <si>
+    <t>weight3</t>
+  </si>
+  <si>
+    <t>weight1</t>
+  </si>
+  <si>
+    <t>weight2</t>
+  </si>
+  <si>
+    <t>raw_weight3</t>
+  </si>
+  <si>
+    <t>raw_weight1</t>
+  </si>
+  <si>
+    <t>raw_weight2</t>
   </si>
 </sst>
 </file>
@@ -3147,7 +3159,7 @@
         <v>134</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>163</v>
@@ -3167,7 +3179,7 @@
         <v>134</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>164</v>
@@ -3187,7 +3199,7 @@
         <v>134</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>165</v>
@@ -3216,7 +3228,7 @@
         <v>134</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>166</v>
@@ -3236,7 +3248,7 @@
         <v>134</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>167</v>
@@ -3256,7 +3268,7 @@
         <v>134</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>168</v>
@@ -3285,7 +3297,7 @@
         <v>134</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>169</v>
@@ -3305,7 +3317,7 @@
         <v>134</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>170</v>
@@ -3325,7 +3337,7 @@
         <v>134</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>171</v>
@@ -3345,7 +3357,7 @@
         <v>134</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>172</v>
@@ -3365,7 +3377,7 @@
         <v>134</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>173</v>
@@ -3394,7 +3406,7 @@
         <v>134</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>174</v>
@@ -3414,7 +3426,7 @@
         <v>134</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>175</v>
@@ -3434,7 +3446,7 @@
         <v>134</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>176</v>
@@ -3454,7 +3466,7 @@
         <v>134</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>177</v>
@@ -3483,7 +3495,7 @@
         <v>134</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>178</v>
@@ -3503,7 +3515,7 @@
         <v>134</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>179</v>
@@ -3523,7 +3535,7 @@
         <v>134</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>180</v>
@@ -3543,7 +3555,7 @@
         <v>134</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>181</v>
@@ -3563,7 +3575,7 @@
         <v>134</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>182</v>
@@ -3583,7 +3595,7 @@
         <v>134</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>183</v>
@@ -12869,10 +12881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15"/>
@@ -12885,11 +12897,13 @@
     <col min="6" max="7" width="7" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="2" customWidth="1"/>
     <col min="9" max="10" width="7" style="2"/>
-    <col min="11" max="11" width="8.42578125" style="12" customWidth="1"/>
-    <col min="12" max="16384" width="7" style="2"/>
+    <col min="11" max="11" width="8" style="2" customWidth="1"/>
+    <col min="12" max="14" width="7" style="2"/>
+    <col min="15" max="15" width="8.42578125" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="7" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="47.25">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="47.25">
       <c r="A1" s="4" t="s">
         <v>184</v>
       </c>
@@ -12918,19 +12932,31 @@
         <v>200</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>220</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -12938,8 +12964,12 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -12951,8 +12981,12 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="9" t="s">
         <v>185</v>
       </c>
@@ -12976,21 +13010,35 @@
         <v>0.33384878305494498</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I4" s="15">
         <v>1</v>
       </c>
       <c r="J4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <v>1</v>
+      </c>
+      <c r="L4" s="15">
         <f>B4*C4</f>
         <v>4</v>
       </c>
-      <c r="K4" s="16">
+      <c r="M4" s="16">
         <f>J4/SUM($J$4:$J$28)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N4" s="16">
+        <f>K4/SUM($K$4:$K$28)</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="O4" s="16">
+        <f>L4/SUM($L$4:$L$28)</f>
         <v>5.0632911392405063E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:15">
       <c r="A5" s="9" t="s">
         <v>185</v>
       </c>
@@ -13014,21 +13062,35 @@
         <v>0.38905212513489701</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I5" s="15">
         <v>2</v>
       </c>
       <c r="J5" s="15">
-        <f t="shared" ref="J5:J6" si="1">B5*C5</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="15">
+        <v>3</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" ref="L5:L6" si="1">B5*C5</f>
         <v>2</v>
       </c>
-      <c r="K5" s="16">
-        <f t="shared" ref="K5:K28" si="2">J5/SUM($J$4:$J$28)</f>
+      <c r="M5" s="16">
+        <f t="shared" ref="M5:M6" si="2">J5/SUM($J$4:$J$28)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N5" s="16">
+        <f t="shared" ref="N5:N6" si="3">K5/SUM($K$4:$K$28)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O5" s="16">
+        <f t="shared" ref="O5:O28" si="4">L5/SUM($L$4:$L$28)</f>
         <v>2.5316455696202531E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:15">
       <c r="A6" s="9" t="s">
         <v>185</v>
       </c>
@@ -13052,21 +13114,35 @@
         <v>-0.82542140062403802</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I6" s="15">
         <v>3</v>
       </c>
       <c r="J6" s="15">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1</v>
+      </c>
+      <c r="L6" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K6" s="16">
+      <c r="M6" s="16">
         <f t="shared" si="2"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N6" s="16">
+        <f t="shared" si="3"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" si="4"/>
         <v>1.2658227848101266E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:15">
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -13078,9 +13154,13 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="9" t="s">
         <v>185</v>
       </c>
@@ -13104,21 +13184,35 @@
         <v>0.33384878305494498</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I8" s="15">
         <v>4</v>
       </c>
       <c r="J8" s="15">
-        <f t="shared" ref="J8:J10" si="3">B8*C8</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="15">
+        <v>1</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" ref="L8:L10" si="5">B8*C8</f>
         <v>4</v>
       </c>
-      <c r="K8" s="16">
-        <f t="shared" si="2"/>
+      <c r="M8" s="16">
+        <f t="shared" ref="M8:M10" si="6">J8/SUM($J$4:$J$28)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N8" s="16">
+        <f t="shared" ref="N8:N10" si="7">K8/SUM($K$4:$K$28)</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="O8" s="16">
+        <f t="shared" si="4"/>
         <v>5.0632911392405063E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:15">
       <c r="A9" s="9" t="s">
         <v>185</v>
       </c>
@@ -13142,21 +13236,35 @@
         <v>-0.60460803230423199</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I9" s="15">
         <v>5</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="16">
-        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="15">
+        <v>1</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="16">
+        <f t="shared" si="6"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" si="7"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="O9" s="16">
+        <f t="shared" si="4"/>
         <v>1.2658227848101266E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:15">
       <c r="A10" s="9" t="s">
         <v>185</v>
       </c>
@@ -13180,21 +13288,35 @@
         <v>-1.1014381110238001</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I10" s="15">
         <v>6</v>
       </c>
       <c r="J10" s="15">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K10" s="16">
-        <f t="shared" si="2"/>
+      <c r="M10" s="16">
+        <f t="shared" si="6"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N10" s="16">
+        <f t="shared" si="7"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="O10" s="16">
+        <f t="shared" si="4"/>
         <v>2.5316455696202531E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:15">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -13206,9 +13328,13 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="9" t="s">
         <v>185</v>
       </c>
@@ -13232,21 +13358,35 @@
         <v>0.66506883553465501</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I12" s="15">
         <v>7</v>
       </c>
       <c r="J12" s="15">
-        <f t="shared" ref="J12:J16" si="4">B12*C12</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="15">
+        <v>3</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" ref="L12:L16" si="8">B12*C12</f>
         <v>9</v>
       </c>
-      <c r="K12" s="16">
-        <f t="shared" si="2"/>
+      <c r="M12" s="16">
+        <f t="shared" ref="M12:M16" si="9">J12/SUM($J$4:$J$28)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N12" s="16">
+        <f t="shared" ref="N12:N16" si="10">K12/SUM($K$4:$K$28)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O12" s="16">
+        <f t="shared" si="4"/>
         <v>0.11392405063291139</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:15">
       <c r="A13" s="9" t="s">
         <v>185</v>
       </c>
@@ -13270,21 +13410,35 @@
         <v>0.55466215137475205</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I13" s="15">
         <v>8</v>
       </c>
       <c r="J13" s="15">
+        <v>1</v>
+      </c>
+      <c r="K13" s="15">
+        <v>3</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" si="9"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N13" s="16">
+        <f t="shared" si="10"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O13" s="16">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="K13" s="16">
-        <f t="shared" si="2"/>
         <v>0.11392405063291139</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:15">
       <c r="A14" s="9" t="s">
         <v>185</v>
       </c>
@@ -13299,7 +13453,7 @@
         <v>134</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F14" s="2">
         <v>0.32</v>
@@ -13308,21 +13462,35 @@
         <v>-0.162981295664619</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I14" s="15">
         <v>9</v>
       </c>
       <c r="J14" s="15">
+        <v>1</v>
+      </c>
+      <c r="K14" s="15">
+        <v>3</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="9"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N14" s="16">
+        <f t="shared" si="10"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O14" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="K14" s="16">
-        <f t="shared" si="2"/>
         <v>5.0632911392405063E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:15">
       <c r="A15" s="9" t="s">
         <v>185</v>
       </c>
@@ -13346,21 +13514,35 @@
         <v>0.44425546721484899</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I15" s="15">
         <v>10</v>
       </c>
       <c r="J15" s="15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="15">
+        <v>3</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M15" s="16">
+        <f t="shared" si="9"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N15" s="16">
+        <f t="shared" si="10"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O15" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="K15" s="16">
-        <f t="shared" si="2"/>
         <v>5.0632911392405063E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:15">
       <c r="A16" s="9" t="s">
         <v>185</v>
       </c>
@@ -13384,21 +13566,35 @@
         <v>-0.38379466398442502</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I16" s="15">
         <v>11</v>
       </c>
       <c r="J16" s="15">
+        <v>1</v>
+      </c>
+      <c r="K16" s="15">
+        <v>3</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="M16" s="16">
+        <f t="shared" si="9"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" si="10"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O16" s="16">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="K16" s="16">
-        <f t="shared" si="2"/>
         <v>7.5949367088607597E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:15">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -13410,9 +13606,13 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="18"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="9" t="s">
         <v>185</v>
       </c>
@@ -13436,21 +13636,35 @@
         <v>-0.32859132190447399</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I18" s="15">
         <v>12</v>
       </c>
       <c r="J18" s="15">
-        <f t="shared" ref="J18:J21" si="5">B18*C18</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="15">
+        <v>1</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" ref="L18:L21" si="11">B18*C18</f>
         <v>6</v>
       </c>
-      <c r="K18" s="16">
-        <f t="shared" si="2"/>
+      <c r="M18" s="16">
+        <f t="shared" ref="M18:M21" si="12">J18/SUM($J$4:$J$28)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N18" s="16">
+        <f t="shared" ref="N18:N21" si="13">K18/SUM($K$4:$K$28)</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="O18" s="16">
+        <f t="shared" si="4"/>
         <v>7.5949367088607597E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:15">
       <c r="A19" s="9" t="s">
         <v>185</v>
       </c>
@@ -13474,21 +13688,35 @@
         <v>-1.3222514793436</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I19" s="15">
         <v>13</v>
       </c>
       <c r="J19" s="15">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K19" s="16">
-        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="15">
+        <v>1</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="16">
+        <f t="shared" si="12"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N19" s="16">
+        <f t="shared" si="13"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="O19" s="16">
+        <f t="shared" si="4"/>
         <v>1.2658227848101266E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:15">
       <c r="A20" s="9" t="s">
         <v>185</v>
       </c>
@@ -13512,21 +13740,35 @@
         <v>-1.9294882422230699</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I20" s="15">
         <v>14</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="15">
         <v>3</v>
       </c>
-      <c r="K20" s="16">
-        <f t="shared" si="2"/>
+      <c r="L20" s="15">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" si="12"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" si="13"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" si="4"/>
         <v>3.7974683544303799E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:15">
       <c r="A21" s="9" t="s">
         <v>185</v>
       </c>
@@ -13550,21 +13792,35 @@
         <v>5.7832072655187403E-2</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I21" s="15">
         <v>15</v>
       </c>
       <c r="J21" s="15">
-        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="15">
+        <v>3</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="K21" s="16">
-        <f t="shared" si="2"/>
+      <c r="M21" s="16">
+        <f t="shared" si="12"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N21" s="16">
+        <f t="shared" si="13"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O21" s="16">
+        <f t="shared" si="4"/>
         <v>5.0632911392405063E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:15">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -13576,9 +13832,13 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="9" t="s">
         <v>185</v>
       </c>
@@ -13602,21 +13862,35 @@
         <v>-0.49420134814432898</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I23" s="15">
         <v>16</v>
       </c>
       <c r="J23" s="15">
-        <f t="shared" ref="J23:J28" si="6">B23*C23</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="15">
+        <v>1</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" ref="L23:L28" si="14">B23*C23</f>
         <v>2</v>
       </c>
-      <c r="K23" s="16">
-        <f t="shared" si="2"/>
+      <c r="M23" s="16">
+        <f t="shared" ref="M23:M28" si="15">J23/SUM($J$4:$J$28)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N23" s="16">
+        <f t="shared" ref="N23:N28" si="16">K23/SUM($K$4:$K$28)</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="O23" s="16">
+        <f t="shared" si="4"/>
         <v>2.5316455696202531E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:15">
       <c r="A24" s="9" t="s">
         <v>185</v>
       </c>
@@ -13640,21 +13914,35 @@
         <v>-0.60460803230423199</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I24" s="15">
         <v>17</v>
       </c>
       <c r="J24" s="15">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K24" s="16">
-        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="15">
+        <v>3</v>
+      </c>
+      <c r="L24" s="15">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="16">
+        <f t="shared" si="15"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N24" s="16">
+        <f t="shared" si="16"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O24" s="16">
+        <f t="shared" si="4"/>
         <v>1.2658227848101266E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:15">
       <c r="A25" s="9" t="s">
         <v>185</v>
       </c>
@@ -13678,21 +13966,35 @@
         <v>1.8243390192136399</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I25" s="15">
         <v>18</v>
       </c>
       <c r="J25" s="15">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="15">
+        <v>1</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="K25" s="16">
-        <f t="shared" si="2"/>
+      <c r="M25" s="16">
+        <f t="shared" si="15"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N25" s="16">
+        <f t="shared" si="16"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="O25" s="16">
+        <f t="shared" si="4"/>
         <v>7.5949367088607597E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:15">
       <c r="A26" s="9" t="s">
         <v>185</v>
       </c>
@@ -13716,21 +14018,35 @@
         <v>0.49945880929480002</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I26" s="15">
         <v>19</v>
       </c>
       <c r="J26" s="15">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="15">
+        <v>1</v>
+      </c>
+      <c r="L26" s="15">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="K26" s="16">
-        <f t="shared" si="2"/>
+      <c r="M26" s="16">
+        <f t="shared" si="15"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N26" s="16">
+        <f t="shared" si="16"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="O26" s="16">
+        <f t="shared" si="4"/>
         <v>2.5316455696202531E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:15">
       <c r="A27" s="9" t="s">
         <v>185</v>
       </c>
@@ -13754,21 +14070,35 @@
         <v>2.5419824662530099</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I27" s="15">
         <v>20</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="15">
+        <v>1</v>
+      </c>
+      <c r="L27" s="15">
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="K27" s="16">
-        <f t="shared" si="2"/>
+      <c r="M27" s="16">
+        <f t="shared" si="15"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N27" s="16">
+        <f t="shared" si="16"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="O27" s="16">
+        <f t="shared" si="4"/>
         <v>7.5949367088607597E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:15">
       <c r="A28" s="9" t="s">
         <v>185</v>
       </c>
@@ -13792,54 +14122,68 @@
         <v>0.11303541473513901</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I28" s="15">
         <v>21</v>
       </c>
       <c r="J28" s="15">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="15">
+        <v>1</v>
+      </c>
+      <c r="L28" s="15">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="K28" s="16">
-        <f t="shared" si="2"/>
+      <c r="M28" s="16">
+        <f t="shared" si="15"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N28" s="16">
+        <f t="shared" si="16"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="O28" s="16">
+        <f t="shared" si="4"/>
         <v>2.5316455696202531E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18.75">
+    <row r="29" spans="1:15" ht="18.75">
       <c r="A29" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B29" s="20">
         <f>COUNTIF($B$4:$B$28,3)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18.75">
+    <row r="30" spans="1:15" ht="18.75">
       <c r="A30" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B30" s="20">
         <f>COUNTIF($B$4:$B$28,2)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18.75">
+    <row r="31" spans="1:15" ht="18.75">
       <c r="A31" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B31" s="20">
         <f>COUNTIF($B$4:$B$28,1)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" ht="18.75">
+    <row r="32" spans="1:15" s="9" customFormat="1" ht="18.75">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
@@ -13847,8 +14191,12 @@
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="9" t="s">
         <v>186</v>
       </c>
@@ -13856,14 +14204,14 @@
         <v>3</v>
       </c>
       <c r="C33" s="14">
-        <f t="shared" ref="C33:C86" si="7">IF(H33="low",1,IF(H33="medium",2,3))</f>
+        <f t="shared" ref="C33:C86" si="17">IF(H33="low",1,IF(H33="medium",2,3))</f>
         <v>1</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>134</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F33" s="2">
         <v>0.44</v>
@@ -13872,21 +14220,35 @@
         <v>-0.59573911093003096</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I33" s="15">
         <v>1</v>
       </c>
       <c r="J33" s="15">
+        <v>1</v>
+      </c>
+      <c r="K33" s="15">
+        <v>3</v>
+      </c>
+      <c r="L33" s="15">
         <f>B33*C33</f>
         <v>3</v>
       </c>
-      <c r="K33" s="16">
+      <c r="M33" s="16">
         <f>J33/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N33" s="16">
+        <f>K33/SUM($K$33:$K$86)</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="O33" s="16">
+        <f>L33/SUM($L$33:$L$86)</f>
         <v>2.0270270270270271E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:15">
       <c r="A34" s="9" t="s">
         <v>186</v>
       </c>
@@ -13894,7 +14256,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -13910,21 +14272,35 @@
         <v>0.40777864277563702</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I34" s="15">
         <v>2</v>
       </c>
       <c r="J34" s="15">
+        <v>1</v>
+      </c>
+      <c r="K34" s="15">
+        <v>1</v>
+      </c>
+      <c r="L34" s="15">
         <f>B34*C34</f>
         <v>4</v>
       </c>
-      <c r="K34" s="16">
+      <c r="M34" s="16">
         <f>J34/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N34" s="16">
+        <f>K34/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O34" s="16">
+        <f>L34/SUM($L$33:$L$86)</f>
         <v>2.7027027027027029E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:15">
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -13936,8 +14312,12 @@
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="9" t="s">
         <v>186</v>
       </c>
@@ -13945,7 +14325,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D36" s="14" t="s">
@@ -13961,21 +14341,35 @@
         <v>-0.66741895048043598</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I36" s="15">
         <v>3</v>
       </c>
       <c r="J36" s="15">
-        <f t="shared" ref="J36:J38" si="8">B36*C36</f>
-        <v>1</v>
-      </c>
-      <c r="K36" s="16">
-        <f t="shared" ref="K36:K38" si="9">J36/SUM($J$33:$J$86)</f>
+        <v>1</v>
+      </c>
+      <c r="K36" s="15">
+        <v>1</v>
+      </c>
+      <c r="L36" s="15">
+        <f t="shared" ref="L36:L38" si="18">B36*C36</f>
+        <v>1</v>
+      </c>
+      <c r="M36" s="16">
+        <f>J36/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N36" s="16">
+        <f>K36/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O36" s="16">
+        <f t="shared" ref="O36:O38" si="19">L36/SUM($L$33:$L$86)</f>
         <v>6.7567567567567571E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:15">
       <c r="A37" s="9" t="s">
         <v>186</v>
       </c>
@@ -13983,7 +14377,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D37" s="14" t="s">
@@ -13999,21 +14393,35 @@
         <v>-1.38421734598449</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I37" s="15">
         <v>4</v>
       </c>
       <c r="J37" s="15">
-        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="15">
         <v>3</v>
       </c>
-      <c r="K37" s="16">
-        <f t="shared" si="9"/>
+      <c r="L37" s="15">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="M37" s="16">
+        <f>J37/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N37" s="16">
+        <f>K37/SUM($K$33:$K$86)</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="O37" s="16">
+        <f t="shared" si="19"/>
         <v>2.0270270270270271E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:15">
       <c r="A38" s="9" t="s">
         <v>186</v>
       </c>
@@ -14021,7 +14429,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D38" s="14" t="s">
@@ -14037,21 +14445,35 @@
         <v>-0.66741895048043598</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I38" s="15">
         <v>5</v>
       </c>
       <c r="J38" s="15">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K38" s="16">
-        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="15">
+        <v>1</v>
+      </c>
+      <c r="L38" s="15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="M38" s="16">
+        <f>J38/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N38" s="16">
+        <f>K38/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O38" s="16">
+        <f t="shared" si="19"/>
         <v>6.7567567567567571E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:15">
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -14063,8 +14485,12 @@
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="9" t="s">
         <v>186</v>
       </c>
@@ -14072,7 +14498,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D40" s="14" t="s">
@@ -14088,21 +14514,35 @@
         <v>1.12457703827969</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I40" s="15">
         <v>6</v>
       </c>
       <c r="J40" s="15">
-        <f t="shared" ref="J40:J42" si="10">B40*C40</f>
+        <v>1</v>
+      </c>
+      <c r="K40" s="15">
+        <v>1</v>
+      </c>
+      <c r="L40" s="15">
+        <f t="shared" ref="L40:L42" si="20">B40*C40</f>
         <v>6</v>
       </c>
-      <c r="K40" s="16">
-        <f t="shared" ref="K40:K42" si="11">J40/SUM($J$33:$J$86)</f>
+      <c r="M40" s="16">
+        <f>J40/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N40" s="16">
+        <f>K40/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O40" s="16">
+        <f t="shared" ref="O40:O42" si="21">L40/SUM($L$33:$L$86)</f>
         <v>4.0540540540540543E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:15">
       <c r="A41" s="9" t="s">
         <v>186</v>
       </c>
@@ -14110,7 +14550,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -14126,21 +14566,35 @@
         <v>-0.16566007362760199</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I41" s="15">
         <v>7</v>
       </c>
       <c r="J41" s="15">
-        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="15">
+        <v>1</v>
+      </c>
+      <c r="L41" s="15">
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="K41" s="16">
-        <f t="shared" si="11"/>
+      <c r="M41" s="16">
+        <f>J41/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N41" s="16">
+        <f>K41/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O41" s="16">
+        <f t="shared" si="21"/>
         <v>1.3513513513513514E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:15">
       <c r="A42" s="9" t="s">
         <v>186</v>
       </c>
@@ -14148,7 +14602,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -14164,21 +14618,35 @@
         <v>0.83785768007806605</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I42" s="15">
         <v>8</v>
       </c>
       <c r="J42" s="15">
-        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K42" s="15">
+        <v>1</v>
+      </c>
+      <c r="L42" s="15">
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="K42" s="16">
-        <f t="shared" si="11"/>
+      <c r="M42" s="16">
+        <f>J42/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N42" s="16">
+        <f>K42/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O42" s="16">
+        <f t="shared" si="21"/>
         <v>4.0540540540540543E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:15">
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -14190,8 +14658,12 @@
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="9" t="s">
         <v>186</v>
       </c>
@@ -14199,7 +14671,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -14215,21 +14687,35 @@
         <v>-1.2408576668836799</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I44" s="15">
         <v>9</v>
       </c>
       <c r="J44" s="15">
-        <f t="shared" ref="J44:J45" si="12">B44*C44</f>
+        <v>1</v>
+      </c>
+      <c r="K44" s="15">
+        <v>3</v>
+      </c>
+      <c r="L44" s="15">
+        <f t="shared" ref="L44:L45" si="22">B44*C44</f>
         <v>2</v>
       </c>
-      <c r="K44" s="16">
-        <f t="shared" ref="K44:K45" si="13">J44/SUM($J$33:$J$86)</f>
+      <c r="M44" s="16">
+        <f>J44/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N44" s="16">
+        <f>K44/SUM($K$33:$K$86)</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="O44" s="16">
+        <f t="shared" ref="O44:O45" si="23">L44/SUM($L$33:$L$86)</f>
         <v>1.3513513513513514E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:15">
       <c r="A45" s="9" t="s">
         <v>186</v>
       </c>
@@ -14237,7 +14723,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D45" s="14" t="s">
@@ -14253,21 +14739,35 @@
         <v>-1.2408576668836799</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I45" s="15">
         <v>10</v>
       </c>
       <c r="J45" s="15">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="K45" s="16">
-        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K45" s="15">
+        <v>1</v>
+      </c>
+      <c r="L45" s="15">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="M45" s="16">
+        <f>J45/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N45" s="16">
+        <f>K45/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O45" s="16">
+        <f t="shared" si="23"/>
         <v>6.7567567567567571E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:15">
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -14279,8 +14779,12 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="9" t="s">
         <v>186</v>
       </c>
@@ -14288,7 +14792,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D47" s="14" t="s">
@@ -14304,21 +14808,35 @@
         <v>-0.45237943182922202</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I47" s="15">
         <v>11</v>
       </c>
       <c r="J47" s="15">
-        <f t="shared" ref="J47:J50" si="14">B47*C47</f>
+        <v>1</v>
+      </c>
+      <c r="K47" s="15">
+        <v>3</v>
+      </c>
+      <c r="L47" s="15">
+        <f t="shared" ref="L47:L50" si="24">B47*C47</f>
         <v>6</v>
       </c>
-      <c r="K47" s="16">
-        <f t="shared" ref="K47:K50" si="15">J47/SUM($J$33:$J$86)</f>
+      <c r="M47" s="16">
+        <f>J47/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N47" s="16">
+        <f>K47/SUM($K$33:$K$86)</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="O47" s="16">
+        <f t="shared" ref="O47:O50" si="25">L47/SUM($L$33:$L$86)</f>
         <v>4.0540540540540543E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:15">
       <c r="A48" s="9" t="s">
         <v>186</v>
       </c>
@@ -14326,7 +14844,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D48" s="14" t="s">
@@ -14342,21 +14860,35 @@
         <v>2.9882528665902099</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I48" s="15">
         <v>12</v>
       </c>
       <c r="J48" s="15">
-        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K48" s="15">
+        <v>1</v>
+      </c>
+      <c r="L48" s="15">
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="K48" s="16">
-        <f t="shared" si="15"/>
+      <c r="M48" s="16">
+        <f>J48/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N48" s="16">
+        <f>K48/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O48" s="16">
+        <f t="shared" si="25"/>
         <v>2.0270270270270271E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:15">
       <c r="A49" s="9" t="s">
         <v>186</v>
       </c>
@@ -14364,7 +14896,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D49" s="14" t="s">
@@ -14380,21 +14912,35 @@
         <v>0.90953751962847096</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I49" s="15">
         <v>13</v>
       </c>
       <c r="J49" s="15">
-        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K49" s="15">
+        <v>1</v>
+      </c>
+      <c r="L49" s="15">
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="K49" s="16">
-        <f t="shared" si="15"/>
+      <c r="M49" s="16">
+        <f>J49/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N49" s="16">
+        <f>K49/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O49" s="16">
+        <f t="shared" si="25"/>
         <v>2.0270270270270271E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:15">
       <c r="A50" s="9" t="s">
         <v>186</v>
       </c>
@@ -14402,7 +14948,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D50" s="14" t="s">
@@ -14418,21 +14964,35 @@
         <v>-0.45237943182922202</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I50" s="15">
         <v>14</v>
       </c>
       <c r="J50" s="15">
-        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K50" s="15">
+        <v>3</v>
+      </c>
+      <c r="L50" s="15">
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="K50" s="16">
-        <f t="shared" si="15"/>
+      <c r="M50" s="16">
+        <f>J50/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N50" s="16">
+        <f>K50/SUM($K$33:$K$86)</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="O50" s="16">
+        <f t="shared" si="25"/>
         <v>4.0540540540540543E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:15">
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -14444,8 +15004,12 @@
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="9" t="s">
         <v>186</v>
       </c>
@@ -14453,7 +15017,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D52" s="14" t="s">
@@ -14469,21 +15033,35 @@
         <v>-0.23733991317800701</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I52" s="15">
         <v>15</v>
       </c>
       <c r="J52" s="15">
-        <f t="shared" ref="J52:J53" si="16">B52*C52</f>
+        <v>1</v>
+      </c>
+      <c r="K52" s="15">
+        <v>1</v>
+      </c>
+      <c r="L52" s="15">
+        <f t="shared" ref="L52:L53" si="26">B52*C52</f>
         <v>2</v>
       </c>
-      <c r="K52" s="16">
-        <f t="shared" ref="K52:K53" si="17">J52/SUM($J$33:$J$86)</f>
+      <c r="M52" s="16">
+        <f>J52/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N52" s="16">
+        <f>K52/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O52" s="16">
+        <f t="shared" ref="O52:O53" si="27">L52/SUM($L$33:$L$86)</f>
         <v>1.3513513513513514E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:15">
       <c r="A53" s="9" t="s">
         <v>186</v>
       </c>
@@ -14491,7 +15069,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D53" s="14" t="s">
@@ -14507,21 +15085,35 @@
         <v>-0.16566007362760199</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I53" s="15">
         <v>16</v>
       </c>
       <c r="J53" s="15">
-        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K53" s="15">
+        <v>1</v>
+      </c>
+      <c r="L53" s="15">
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="K53" s="16">
-        <f t="shared" si="17"/>
+      <c r="M53" s="16">
+        <f>J53/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N53" s="16">
+        <f>K53/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O53" s="16">
+        <f t="shared" si="27"/>
         <v>1.3513513513513514E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:15">
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -14533,8 +15125,12 @@
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="9" t="s">
         <v>186</v>
       </c>
@@ -14542,7 +15138,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D55" s="14" t="s">
@@ -14558,21 +15154,35 @@
         <v>-0.59573911093003096</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I55" s="15">
         <v>17</v>
       </c>
       <c r="J55" s="15">
-        <f t="shared" ref="J55:J59" si="18">B55*C55</f>
+        <v>1</v>
+      </c>
+      <c r="K55" s="15">
+        <v>1</v>
+      </c>
+      <c r="L55" s="15">
+        <f t="shared" ref="L55:L59" si="28">B55*C55</f>
         <v>3</v>
       </c>
-      <c r="K55" s="16">
-        <f t="shared" ref="K55:K59" si="19">J55/SUM($J$33:$J$86)</f>
+      <c r="M55" s="16">
+        <f>J55/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N55" s="16">
+        <f>K55/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O55" s="16">
+        <f t="shared" ref="O55:O59" si="29">L55/SUM($L$33:$L$86)</f>
         <v>2.0270270270270271E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:15">
       <c r="A56" s="9" t="s">
         <v>186</v>
       </c>
@@ -14580,7 +15190,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D56" s="14" t="s">
@@ -14596,21 +15206,35 @@
         <v>0.83785768007806605</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I56" s="15">
         <v>18</v>
       </c>
       <c r="J56" s="15">
-        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K56" s="15">
+        <v>1</v>
+      </c>
+      <c r="L56" s="15">
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
-      <c r="K56" s="16">
-        <f t="shared" si="19"/>
+      <c r="M56" s="16">
+        <f>J56/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N56" s="16">
+        <f>K56/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O56" s="16">
+        <f t="shared" si="29"/>
         <v>2.0270270270270271E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:15">
       <c r="A57" s="9" t="s">
         <v>186</v>
       </c>
@@ -14618,7 +15242,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D57" s="14" t="s">
@@ -14634,21 +15258,35 @@
         <v>-0.66741895048043598</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I57" s="15">
         <v>19</v>
       </c>
       <c r="J57" s="15">
-        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K57" s="15">
         <v>3</v>
       </c>
-      <c r="K57" s="16">
-        <f t="shared" si="19"/>
+      <c r="L57" s="15">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="M57" s="16">
+        <f>J57/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N57" s="16">
+        <f>K57/SUM($K$33:$K$86)</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="O57" s="16">
+        <f t="shared" si="29"/>
         <v>2.0270270270270271E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:15">
       <c r="A58" s="9" t="s">
         <v>186</v>
       </c>
@@ -14656,7 +15294,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D58" s="14" t="s">
@@ -14672,21 +15310,35 @@
         <v>0.40777864277563702</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I58" s="15">
         <v>20</v>
       </c>
       <c r="J58" s="15">
-        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="15">
+        <v>1</v>
+      </c>
+      <c r="L58" s="15">
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
-      <c r="K58" s="16">
-        <f t="shared" si="19"/>
+      <c r="M58" s="16">
+        <f>J58/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N58" s="16">
+        <f>K58/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O58" s="16">
+        <f t="shared" si="29"/>
         <v>2.7027027027027029E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:15">
       <c r="A59" s="9" t="s">
         <v>186</v>
       </c>
@@ -14694,7 +15346,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D59" s="14" t="s">
@@ -14710,21 +15362,35 @@
         <v>0.26441896367482698</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I59" s="15">
         <v>21</v>
       </c>
       <c r="J59" s="15">
-        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K59" s="15">
+        <v>3</v>
+      </c>
+      <c r="L59" s="15">
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="K59" s="16">
-        <f t="shared" si="19"/>
+      <c r="M59" s="16">
+        <f>J59/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N59" s="16">
+        <f>K59/SUM($K$33:$K$86)</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="O59" s="16">
+        <f t="shared" si="29"/>
         <v>4.0540540540540543E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:15">
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -14736,8 +15402,12 @@
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="9" t="s">
         <v>186</v>
       </c>
@@ -14745,7 +15415,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -14761,21 +15431,35 @@
         <v>0.694498000977256</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I61" s="15">
         <v>22</v>
       </c>
       <c r="J61" s="15">
+        <v>1</v>
+      </c>
+      <c r="K61" s="15">
+        <v>1</v>
+      </c>
+      <c r="L61" s="15">
         <f>B61*C61</f>
         <v>6</v>
       </c>
-      <c r="K61" s="16">
+      <c r="M61" s="16">
         <f>J61/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N61" s="16">
+        <f>K61/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O61" s="16">
+        <f>L61/SUM($L$33:$L$86)</f>
         <v>4.0540540540540543E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:15">
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -14787,8 +15471,12 @@
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="9" t="s">
         <v>186</v>
       </c>
@@ -14796,7 +15484,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D63" s="14" t="s">
@@ -14812,21 +15500,35 @@
         <v>0.98121735917887598</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I63" s="15">
         <v>23</v>
       </c>
       <c r="J63" s="15">
-        <f t="shared" ref="J63:J69" si="20">B63*C63</f>
+        <v>1</v>
+      </c>
+      <c r="K63" s="15">
+        <v>3</v>
+      </c>
+      <c r="L63" s="15">
+        <f t="shared" ref="L63:L69" si="30">B63*C63</f>
         <v>6</v>
       </c>
-      <c r="K63" s="16">
-        <f t="shared" ref="K63:K69" si="21">J63/SUM($J$33:$J$86)</f>
+      <c r="M63" s="16">
+        <f>J63/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N63" s="16">
+        <f>K63/SUM($K$33:$K$86)</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="O63" s="16">
+        <f t="shared" ref="O63:O69" si="31">L63/SUM($L$33:$L$86)</f>
         <v>4.0540540540540543E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:15">
       <c r="A64" s="9" t="s">
         <v>186</v>
       </c>
@@ -14834,7 +15536,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D64" s="14" t="s">
@@ -14850,21 +15552,35 @@
         <v>0.40777864277563702</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I64" s="15">
         <v>24</v>
       </c>
       <c r="J64" s="15">
-        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K64" s="15">
+        <v>3</v>
+      </c>
+      <c r="L64" s="15">
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
-      <c r="K64" s="16">
-        <f t="shared" si="21"/>
+      <c r="M64" s="16">
+        <f>J64/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N64" s="16">
+        <f>K64/SUM($K$33:$K$86)</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="O64" s="16">
+        <f t="shared" si="31"/>
         <v>1.3513513513513514E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:15">
       <c r="A65" s="9" t="s">
         <v>186</v>
       </c>
@@ -14872,7 +15588,7 @@
         <v>3</v>
       </c>
       <c r="C65" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D65" s="14" t="s">
@@ -14888,21 +15604,35 @@
         <v>1.2679367173805001</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I65" s="15">
         <v>25</v>
       </c>
       <c r="J65" s="15">
-        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K65" s="15">
+        <v>3</v>
+      </c>
+      <c r="L65" s="15">
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
-      <c r="K65" s="16">
-        <f t="shared" si="21"/>
+      <c r="M65" s="16">
+        <f>J65/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N65" s="16">
+        <f>K65/SUM($K$33:$K$86)</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="O65" s="16">
+        <f t="shared" si="31"/>
         <v>6.0810810810810814E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:15">
       <c r="A66" s="9" t="s">
         <v>186</v>
       </c>
@@ -14910,7 +15640,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D66" s="14" t="s">
@@ -14926,21 +15656,35 @@
         <v>-0.59573911093003096</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I66" s="15">
         <v>26</v>
       </c>
       <c r="J66" s="15">
-        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K66" s="15">
+        <v>1</v>
+      </c>
+      <c r="L66" s="15">
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
-      <c r="K66" s="16">
-        <f t="shared" si="21"/>
+      <c r="M66" s="16">
+        <f>J66/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N66" s="16">
+        <f>K66/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O66" s="16">
+        <f t="shared" si="31"/>
         <v>2.0270270270270271E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:15">
       <c r="A67" s="9" t="s">
         <v>186</v>
       </c>
@@ -14948,7 +15692,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -14964,21 +15708,35 @@
         <v>-0.95413830868205596</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I67" s="15">
         <v>27</v>
       </c>
       <c r="J67" s="15">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="K67" s="16">
-        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="K67" s="15">
+        <v>1</v>
+      </c>
+      <c r="L67" s="15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="M67" s="16">
+        <f>J67/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N67" s="16">
+        <f>K67/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O67" s="16">
+        <f t="shared" si="31"/>
         <v>6.7567567567567571E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:15">
       <c r="A68" s="9" t="s">
         <v>186</v>
       </c>
@@ -14986,7 +15744,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D68" s="14" t="s">
@@ -15002,21 +15760,35 @@
         <v>-0.66741895048043598</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I68" s="15">
         <v>28</v>
       </c>
       <c r="J68" s="15">
-        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K68" s="15">
+        <v>1</v>
+      </c>
+      <c r="L68" s="15">
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
-      <c r="K68" s="16">
-        <f t="shared" si="21"/>
+      <c r="M68" s="16">
+        <f>J68/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N68" s="16">
+        <f>K68/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O68" s="16">
+        <f t="shared" si="31"/>
         <v>2.0270270270270271E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:15">
       <c r="A69" s="9" t="s">
         <v>186</v>
       </c>
@@ -15024,7 +15796,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D69" s="14" t="s">
@@ -15040,21 +15812,35 @@
         <v>1.69801575468292</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I69" s="15">
         <v>29</v>
       </c>
       <c r="J69" s="15">
-        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K69" s="15">
+        <v>1</v>
+      </c>
+      <c r="L69" s="15">
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
-      <c r="K69" s="16">
-        <f t="shared" si="21"/>
+      <c r="M69" s="16">
+        <f>J69/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N69" s="16">
+        <f>K69/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O69" s="16">
+        <f t="shared" si="31"/>
         <v>2.0270270270270271E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:15">
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -15066,8 +15852,12 @@
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="9" t="s">
         <v>186</v>
       </c>
@@ -15075,7 +15865,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D71" s="14" t="s">
@@ -15091,21 +15881,35 @@
         <v>-1.2408576668836799</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I71" s="15">
         <v>30</v>
       </c>
       <c r="J71" s="15">
-        <f t="shared" ref="J71:J86" si="22">B71*C71</f>
+        <v>1</v>
+      </c>
+      <c r="K71" s="15">
+        <v>1</v>
+      </c>
+      <c r="L71" s="15">
+        <f t="shared" ref="L71:L86" si="32">B71*C71</f>
         <v>3</v>
       </c>
-      <c r="K71" s="16">
-        <f t="shared" ref="K71:K86" si="23">J71/SUM($J$33:$J$86)</f>
+      <c r="M71" s="16">
+        <f>J71/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N71" s="16">
+        <f>K71/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O71" s="16">
+        <f t="shared" ref="O71:O86" si="33">L71/SUM($L$33:$L$86)</f>
         <v>2.0270270270270271E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:15">
       <c r="A72" s="9" t="s">
         <v>186</v>
       </c>
@@ -15113,7 +15917,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D72" s="14" t="s">
@@ -15129,21 +15933,35 @@
         <v>-1.16917782733327</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I72" s="15">
         <v>31</v>
       </c>
       <c r="J72" s="15">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="K72" s="16">
-        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="K72" s="15">
+        <v>1</v>
+      </c>
+      <c r="L72" s="15">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="M72" s="16">
+        <f>J72/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N72" s="16">
+        <f>K72/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O72" s="16">
+        <f t="shared" si="33"/>
         <v>6.7567567567567571E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:15">
       <c r="A73" s="9" t="s">
         <v>186</v>
       </c>
@@ -15151,7 +15969,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D73" s="14" t="s">
@@ -15167,21 +15985,35 @@
         <v>1.12457703827969</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I73" s="15">
         <v>32</v>
       </c>
       <c r="J73" s="15">
-        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K73" s="15">
+        <v>1</v>
+      </c>
+      <c r="L73" s="15">
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="K73" s="16">
-        <f t="shared" si="23"/>
+      <c r="M73" s="16">
+        <f>J73/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N73" s="16">
+        <f>K73/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O73" s="16">
+        <f t="shared" si="33"/>
         <v>2.0270270270270271E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:15">
       <c r="A74" s="9" t="s">
         <v>186</v>
       </c>
@@ -15189,7 +16021,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D74" s="14" t="s">
@@ -15205,21 +16037,35 @@
         <v>0.40777864277563702</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I74" s="15">
         <v>33</v>
       </c>
       <c r="J74" s="15">
-        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K74" s="15">
+        <v>1</v>
+      </c>
+      <c r="L74" s="15">
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="K74" s="16">
-        <f t="shared" si="23"/>
+      <c r="M74" s="16">
+        <f>J74/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N74" s="16">
+        <f>K74/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O74" s="16">
+        <f t="shared" si="33"/>
         <v>2.7027027027027029E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:15">
       <c r="A75" s="9" t="s">
         <v>186</v>
       </c>
@@ -15227,7 +16073,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D75" s="14" t="s">
@@ -15243,21 +16089,35 @@
         <v>0.26441896367482698</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I75" s="15">
         <v>34</v>
       </c>
       <c r="J75" s="15">
-        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K75" s="15">
+        <v>1</v>
+      </c>
+      <c r="L75" s="15">
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="K75" s="16">
-        <f t="shared" si="23"/>
+      <c r="M75" s="16">
+        <f>J75/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N75" s="16">
+        <f>K75/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O75" s="16">
+        <f t="shared" si="33"/>
         <v>1.3513513513513514E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:15">
       <c r="A76" s="9" t="s">
         <v>186</v>
       </c>
@@ -15265,7 +16125,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D76" s="14" t="s">
@@ -15281,21 +16141,35 @@
         <v>-0.23733991317800701</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I76" s="15">
         <v>35</v>
       </c>
       <c r="J76" s="15">
-        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K76" s="15">
+        <v>1</v>
+      </c>
+      <c r="L76" s="15">
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="K76" s="16">
-        <f t="shared" si="23"/>
+      <c r="M76" s="16">
+        <f>J76/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N76" s="16">
+        <f>K76/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O76" s="16">
+        <f t="shared" si="33"/>
         <v>4.0540540540540543E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:15">
       <c r="A77" s="9" t="s">
         <v>186</v>
       </c>
@@ -15303,7 +16177,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D77" s="14" t="s">
@@ -15319,21 +16193,35 @@
         <v>-2.1726955810389401</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I77" s="15">
         <v>36</v>
       </c>
       <c r="J77" s="15">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="K77" s="16">
-        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="K77" s="15">
+        <v>1</v>
+      </c>
+      <c r="L77" s="15">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="M77" s="16">
+        <f>J77/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N77" s="16">
+        <f>K77/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O77" s="16">
+        <f t="shared" si="33"/>
         <v>6.7567567567567571E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:15">
       <c r="A78" s="9" t="s">
         <v>186</v>
       </c>
@@ -15341,7 +16229,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D78" s="14" t="s">
@@ -15357,21 +16245,35 @@
         <v>-0.45237943182922202</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I78" s="15">
         <v>37</v>
       </c>
       <c r="J78" s="15">
-        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K78" s="15">
+        <v>1</v>
+      </c>
+      <c r="L78" s="15">
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="K78" s="16">
-        <f t="shared" si="23"/>
+      <c r="M78" s="16">
+        <f>J78/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N78" s="16">
+        <f>K78/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O78" s="16">
+        <f t="shared" si="33"/>
         <v>1.3513513513513514E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:15">
       <c r="A79" s="9" t="s">
         <v>186</v>
       </c>
@@ -15379,7 +16281,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D79" s="14" t="s">
@@ -15395,21 +16297,35 @@
         <v>-0.66741895048043598</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I79" s="15">
         <v>38</v>
       </c>
       <c r="J79" s="15">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="K79" s="16">
-        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="K79" s="15">
+        <v>3</v>
+      </c>
+      <c r="L79" s="15">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="M79" s="16">
+        <f>J79/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N79" s="16">
+        <f>K79/SUM($K$33:$K$86)</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="O79" s="16">
+        <f t="shared" si="33"/>
         <v>6.7567567567567571E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:15">
       <c r="A80" s="9" t="s">
         <v>186</v>
       </c>
@@ -15417,7 +16333,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D80" s="14" t="s">
@@ -15433,21 +16349,35 @@
         <v>-1.38421734598449</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I80" s="15">
         <v>39</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="K80" s="16">
-        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="K80" s="15">
+        <v>1</v>
+      </c>
+      <c r="L80" s="15">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="M80" s="16">
+        <f>J80/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N80" s="16">
+        <f>K80/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O80" s="16">
+        <f t="shared" si="33"/>
         <v>6.7567567567567571E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:15">
       <c r="A81" s="9" t="s">
         <v>186</v>
       </c>
@@ -15455,7 +16385,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D81" s="14" t="s">
@@ -15471,21 +16401,35 @@
         <v>-0.23733991317800701</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I81" s="15">
         <v>40</v>
       </c>
       <c r="J81" s="15">
-        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K81" s="15">
+        <v>1</v>
+      </c>
+      <c r="L81" s="15">
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="K81" s="16">
-        <f t="shared" si="23"/>
+      <c r="M81" s="16">
+        <f>J81/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N81" s="16">
+        <f>K81/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O81" s="16">
+        <f t="shared" si="33"/>
         <v>1.3513513513513514E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:15">
       <c r="A82" s="9" t="s">
         <v>186</v>
       </c>
@@ -15493,7 +16437,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D82" s="14" t="s">
@@ -15509,21 +16453,35 @@
         <v>1.2679367173805001</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I82" s="15">
         <v>41</v>
       </c>
       <c r="J82" s="15">
-        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K82" s="15">
+        <v>3</v>
+      </c>
+      <c r="L82" s="15">
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="K82" s="16">
-        <f t="shared" si="23"/>
+      <c r="M82" s="16">
+        <f>J82/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N82" s="16">
+        <f>K82/SUM($K$33:$K$86)</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="O82" s="16">
+        <f t="shared" si="33"/>
         <v>4.0540540540540543E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:15">
       <c r="A83" s="9" t="s">
         <v>186</v>
       </c>
@@ -15531,7 +16489,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D83" s="14" t="s">
@@ -15547,21 +16505,35 @@
         <v>4.9379445023612599E-2</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I83" s="15">
         <v>42</v>
       </c>
       <c r="J83" s="15">
-        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K83" s="15">
+        <v>1</v>
+      </c>
+      <c r="L83" s="15">
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="K83" s="16">
-        <f t="shared" si="23"/>
+      <c r="M83" s="16">
+        <f>J83/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N83" s="16">
+        <f>K83/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O83" s="16">
+        <f t="shared" si="33"/>
         <v>1.3513513513513514E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:15">
       <c r="A84" s="9" t="s">
         <v>186</v>
       </c>
@@ -15569,7 +16541,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D84" s="14" t="s">
@@ -15585,21 +16557,35 @@
         <v>0.83785768007806605</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I84" s="15">
         <v>43</v>
       </c>
       <c r="J84" s="15">
-        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K84" s="15">
+        <v>1</v>
+      </c>
+      <c r="L84" s="15">
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="K84" s="16">
-        <f t="shared" si="23"/>
+      <c r="M84" s="16">
+        <f>J84/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N84" s="16">
+        <f>K84/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O84" s="16">
+        <f t="shared" si="33"/>
         <v>2.0270270270270271E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:15">
       <c r="A85" s="9" t="s">
         <v>186</v>
       </c>
@@ -15607,7 +16593,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D85" s="14" t="s">
@@ -15623,21 +16609,35 @@
         <v>0.26441896367482698</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I85" s="15">
         <v>44</v>
       </c>
       <c r="J85" s="15">
-        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K85" s="15">
+        <v>1</v>
+      </c>
+      <c r="L85" s="15">
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="K85" s="16">
-        <f t="shared" si="23"/>
+      <c r="M85" s="16">
+        <f>J85/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N85" s="16">
+        <f>K85/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O85" s="16">
+        <f t="shared" si="33"/>
         <v>1.3513513513513514E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:15">
       <c r="A86" s="9" t="s">
         <v>186</v>
       </c>
@@ -15645,7 +16645,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D86" s="14" t="s">
@@ -15661,23 +16661,37 @@
         <v>1.2679367173805001</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I86" s="15">
         <v>45</v>
       </c>
       <c r="J86" s="15">
-        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K86" s="15">
+        <v>1</v>
+      </c>
+      <c r="L86" s="15">
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="K86" s="16">
-        <f t="shared" si="23"/>
+      <c r="M86" s="16">
+        <f>J86/SUM($J$33:$J$86)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="N86" s="16">
+        <f>K86/SUM($K$33:$K$86)</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="O86" s="16">
+        <f t="shared" si="33"/>
         <v>4.0540540540540543E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="18.75">
+    <row r="87" spans="1:15" ht="18.75">
       <c r="A87" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B87" s="20">
         <f>COUNTIF($B$33:$B$86,3)</f>
@@ -15687,10 +16701,14 @@
         <f>0.3*45</f>
         <v>13.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="18.75">
+      <c r="K87" s="2">
+        <f>COUNTIF(K4:K86,3)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="18.75">
       <c r="A88" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B88" s="20">
         <f>COUNTIF($B$33:$B$86,2)</f>
@@ -15701,9 +16719,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="18.75">
+    <row r="89" spans="1:15" ht="18.75">
       <c r="A89" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B89" s="20">
         <f>COUNTIF($B$33:$B$86,1)</f>
@@ -15754,258 +16772,408 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2">
+        <f>VLOOKUP(A2,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2">
+        <f>VLOOKUP(A3,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="A4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="e">
+        <f>VLOOKUP(A4,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="2" t="e">
+        <f>VLOOKUP(A5,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="2">
+        <f>VLOOKUP(A6,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="2">
+        <f>VLOOKUP(A7,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="2">
+        <f>VLOOKUP(A8,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="2">
+        <f>VLOOKUP(A9,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="2">
+        <f>VLOOKUP(A10,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="2" t="e">
+        <f>VLOOKUP(A11,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="2" t="e">
+        <f>VLOOKUP(A12,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="2">
+        <f>VLOOKUP(A13,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="2">
+        <f>VLOOKUP(A14,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="2">
+        <f>VLOOKUP(A15,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="2">
+        <f>VLOOKUP(A16,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:5" ht="15.75">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="2">
+        <f>VLOOKUP(A17,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="2">
+        <f>VLOOKUP(A18,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="2">
+        <f>VLOOKUP(A19,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="2">
+        <f>VLOOKUP(A20,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:5" ht="15.75">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="2">
+        <f>VLOOKUP(A21,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="2">
+        <f>VLOOKUP(A22,Weightings!$E$4:$K$86,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Key.xlsx
+++ b/Key.xlsx
@@ -1500,7 +1500,67 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Warning Text 2" xfId="52"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -12883,16 +12943,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="2" customWidth="1"/>
+    <col min="3" max="4" width="7" style="2" customWidth="1"/>
     <col min="5" max="5" width="104.85546875" style="2" customWidth="1"/>
     <col min="6" max="7" width="7" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="2" customWidth="1"/>
@@ -14245,7 +14304,7 @@
       </c>
       <c r="O33" s="16">
         <f>L33/SUM($L$33:$L$86)</f>
-        <v>2.0270270270270271E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -14297,7 +14356,7 @@
       </c>
       <c r="O34" s="16">
         <f>L34/SUM($L$33:$L$86)</f>
-        <v>2.7027027027027029E-2</v>
+        <v>3.5087719298245612E-2</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -14366,7 +14425,7 @@
       </c>
       <c r="O36" s="16">
         <f t="shared" ref="O36:O38" si="19">L36/SUM($L$33:$L$86)</f>
-        <v>6.7567567567567571E-3</v>
+        <v>8.771929824561403E-3</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -14418,7 +14477,7 @@
       </c>
       <c r="O37" s="16">
         <f t="shared" si="19"/>
-        <v>2.0270270270270271E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -14470,7 +14529,7 @@
       </c>
       <c r="O38" s="16">
         <f t="shared" si="19"/>
-        <v>6.7567567567567571E-3</v>
+        <v>8.771929824561403E-3</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -14539,7 +14598,7 @@
       </c>
       <c r="O40" s="16">
         <f t="shared" ref="O40:O42" si="21">L40/SUM($L$33:$L$86)</f>
-        <v>4.0540540540540543E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -14547,7 +14606,7 @@
         <v>186</v>
       </c>
       <c r="B41" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="14">
         <f t="shared" si="17"/>
@@ -14579,7 +14638,7 @@
       </c>
       <c r="L41" s="15">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M41" s="16">
         <f>J41/SUM($J$33:$J$86)</f>
@@ -14591,7 +14650,7 @@
       </c>
       <c r="O41" s="16">
         <f t="shared" si="21"/>
-        <v>1.3513513513513514E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -14599,7 +14658,7 @@
         <v>186</v>
       </c>
       <c r="B42" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C42" s="14">
         <f t="shared" si="17"/>
@@ -14631,7 +14690,7 @@
       </c>
       <c r="L42" s="15">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M42" s="16">
         <f>J42/SUM($J$33:$J$86)</f>
@@ -14643,7 +14702,7 @@
       </c>
       <c r="O42" s="16">
         <f t="shared" si="21"/>
-        <v>4.0540540540540543E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -14712,7 +14771,7 @@
       </c>
       <c r="O44" s="16">
         <f t="shared" ref="O44:O45" si="23">L44/SUM($L$33:$L$86)</f>
-        <v>1.3513513513513514E-2</v>
+        <v>1.7543859649122806E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -14764,7 +14823,7 @@
       </c>
       <c r="O45" s="16">
         <f t="shared" si="23"/>
-        <v>6.7567567567567571E-3</v>
+        <v>8.771929824561403E-3</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -14833,7 +14892,7 @@
       </c>
       <c r="O47" s="16">
         <f t="shared" ref="O47:O50" si="25">L47/SUM($L$33:$L$86)</f>
-        <v>4.0540540540540543E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -14841,7 +14900,7 @@
         <v>186</v>
       </c>
       <c r="B48" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="14">
         <f t="shared" si="17"/>
@@ -14873,7 +14932,7 @@
       </c>
       <c r="L48" s="15">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M48" s="16">
         <f>J48/SUM($J$33:$J$86)</f>
@@ -14885,7 +14944,7 @@
       </c>
       <c r="O48" s="16">
         <f t="shared" si="25"/>
-        <v>2.0270270270270271E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -14893,7 +14952,7 @@
         <v>186</v>
       </c>
       <c r="B49" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="14">
         <f t="shared" si="17"/>
@@ -14925,7 +14984,7 @@
       </c>
       <c r="L49" s="15">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M49" s="16">
         <f>J49/SUM($J$33:$J$86)</f>
@@ -14937,7 +14996,7 @@
       </c>
       <c r="O49" s="16">
         <f t="shared" si="25"/>
-        <v>2.0270270270270271E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -14989,7 +15048,7 @@
       </c>
       <c r="O50" s="16">
         <f t="shared" si="25"/>
-        <v>4.0540540540540543E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -15058,7 +15117,7 @@
       </c>
       <c r="O52" s="16">
         <f t="shared" ref="O52:O53" si="27">L52/SUM($L$33:$L$86)</f>
-        <v>1.3513513513513514E-2</v>
+        <v>1.7543859649122806E-2</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -15110,7 +15169,7 @@
       </c>
       <c r="O53" s="16">
         <f t="shared" si="27"/>
-        <v>1.3513513513513514E-2</v>
+        <v>1.7543859649122806E-2</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -15135,7 +15194,7 @@
         <v>186</v>
       </c>
       <c r="B55" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C55" s="14">
         <f t="shared" si="17"/>
@@ -15167,7 +15226,7 @@
       </c>
       <c r="L55" s="15">
         <f t="shared" ref="L55:L59" si="28">B55*C55</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M55" s="16">
         <f>J55/SUM($J$33:$J$86)</f>
@@ -15179,7 +15238,7 @@
       </c>
       <c r="O55" s="16">
         <f t="shared" ref="O55:O59" si="29">L55/SUM($L$33:$L$86)</f>
-        <v>2.0270270270270271E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -15187,7 +15246,7 @@
         <v>186</v>
       </c>
       <c r="B56" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" s="14">
         <f t="shared" si="17"/>
@@ -15219,7 +15278,7 @@
       </c>
       <c r="L56" s="15">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M56" s="16">
         <f>J56/SUM($J$33:$J$86)</f>
@@ -15231,7 +15290,7 @@
       </c>
       <c r="O56" s="16">
         <f t="shared" si="29"/>
-        <v>2.0270270270270271E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -15283,7 +15342,7 @@
       </c>
       <c r="O57" s="16">
         <f t="shared" si="29"/>
-        <v>2.0270270270270271E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -15335,7 +15394,7 @@
       </c>
       <c r="O58" s="16">
         <f t="shared" si="29"/>
-        <v>2.7027027027027029E-2</v>
+        <v>3.5087719298245612E-2</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -15387,7 +15446,7 @@
       </c>
       <c r="O59" s="16">
         <f t="shared" si="29"/>
-        <v>4.0540540540540543E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -15456,7 +15515,7 @@
       </c>
       <c r="O61" s="16">
         <f>L61/SUM($L$33:$L$86)</f>
-        <v>4.0540540540540543E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -15516,16 +15575,16 @@
         <v>6</v>
       </c>
       <c r="M63" s="16">
-        <f>J63/SUM($J$33:$J$86)</f>
+        <f t="shared" ref="M63:M69" si="31">J63/SUM($J$33:$J$86)</f>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N63" s="16">
-        <f>K63/SUM($K$33:$K$86)</f>
+        <f t="shared" ref="N63:N69" si="32">K63/SUM($K$33:$K$86)</f>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="O63" s="16">
-        <f t="shared" ref="O63:O69" si="31">L63/SUM($L$33:$L$86)</f>
-        <v>4.0540540540540543E-2</v>
+        <f t="shared" ref="O63:O69" si="33">L63/SUM($L$33:$L$86)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -15568,16 +15627,16 @@
         <v>2</v>
       </c>
       <c r="M64" s="16">
-        <f>J64/SUM($J$33:$J$86)</f>
+        <f t="shared" si="31"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N64" s="16">
-        <f>K64/SUM($K$33:$K$86)</f>
+        <f t="shared" si="32"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="O64" s="16">
-        <f t="shared" si="31"/>
-        <v>1.3513513513513514E-2</v>
+        <f t="shared" si="33"/>
+        <v>1.7543859649122806E-2</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -15620,16 +15679,16 @@
         <v>9</v>
       </c>
       <c r="M65" s="16">
-        <f>J65/SUM($J$33:$J$86)</f>
+        <f t="shared" si="31"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N65" s="16">
-        <f>K65/SUM($K$33:$K$86)</f>
+        <f t="shared" si="32"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="O65" s="16">
-        <f t="shared" si="31"/>
-        <v>6.0810810810810814E-2</v>
+        <f t="shared" si="33"/>
+        <v>7.8947368421052627E-2</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -15672,16 +15731,16 @@
         <v>3</v>
       </c>
       <c r="M66" s="16">
-        <f>J66/SUM($J$33:$J$86)</f>
+        <f t="shared" si="31"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N66" s="16">
-        <f>K66/SUM($K$33:$K$86)</f>
+        <f t="shared" si="32"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O66" s="16">
-        <f t="shared" si="31"/>
-        <v>2.0270270270270271E-2</v>
+        <f t="shared" si="33"/>
+        <v>2.6315789473684209E-2</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -15724,16 +15783,16 @@
         <v>1</v>
       </c>
       <c r="M67" s="16">
-        <f>J67/SUM($J$33:$J$86)</f>
+        <f t="shared" si="31"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N67" s="16">
-        <f>K67/SUM($K$33:$K$86)</f>
+        <f t="shared" si="32"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O67" s="16">
-        <f t="shared" si="31"/>
-        <v>6.7567567567567571E-3</v>
+        <f t="shared" si="33"/>
+        <v>8.771929824561403E-3</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -15776,16 +15835,16 @@
         <v>3</v>
       </c>
       <c r="M68" s="16">
-        <f>J68/SUM($J$33:$J$86)</f>
+        <f t="shared" si="31"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N68" s="16">
-        <f>K68/SUM($K$33:$K$86)</f>
+        <f t="shared" si="32"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O68" s="16">
-        <f t="shared" si="31"/>
-        <v>2.0270270270270271E-2</v>
+        <f t="shared" si="33"/>
+        <v>2.6315789473684209E-2</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -15793,7 +15852,7 @@
         <v>186</v>
       </c>
       <c r="B69" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="14">
         <f t="shared" si="17"/>
@@ -15825,19 +15884,19 @@
       </c>
       <c r="L69" s="15">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M69" s="16">
-        <f>J69/SUM($J$33:$J$86)</f>
+        <f t="shared" si="31"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N69" s="16">
-        <f>K69/SUM($K$33:$K$86)</f>
+        <f t="shared" si="32"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O69" s="16">
-        <f t="shared" si="31"/>
-        <v>2.0270270270270271E-2</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -15893,20 +15952,20 @@
         <v>1</v>
       </c>
       <c r="L71" s="15">
-        <f t="shared" ref="L71:L86" si="32">B71*C71</f>
+        <f t="shared" ref="L71:L86" si="34">B71*C71</f>
         <v>3</v>
       </c>
       <c r="M71" s="16">
-        <f>J71/SUM($J$33:$J$86)</f>
+        <f t="shared" ref="M71:M86" si="35">J71/SUM($J$33:$J$86)</f>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N71" s="16">
-        <f>K71/SUM($K$33:$K$86)</f>
+        <f t="shared" ref="N71:N86" si="36">K71/SUM($K$33:$K$86)</f>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O71" s="16">
-        <f t="shared" ref="O71:O86" si="33">L71/SUM($L$33:$L$86)</f>
-        <v>2.0270270270270271E-2</v>
+        <f t="shared" ref="O71:O86" si="37">L71/SUM($L$33:$L$86)</f>
+        <v>2.6315789473684209E-2</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -15945,20 +16004,20 @@
         <v>1</v>
       </c>
       <c r="L72" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M72" s="16">
-        <f>J72/SUM($J$33:$J$86)</f>
+        <f t="shared" si="35"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N72" s="16">
-        <f>K72/SUM($K$33:$K$86)</f>
+        <f t="shared" si="36"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O72" s="16">
-        <f t="shared" si="33"/>
-        <v>6.7567567567567571E-3</v>
+        <f t="shared" si="37"/>
+        <v>8.771929824561403E-3</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -15966,7 +16025,7 @@
         <v>186</v>
       </c>
       <c r="B73" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" s="14">
         <f t="shared" si="17"/>
@@ -15997,20 +16056,20 @@
         <v>1</v>
       </c>
       <c r="L73" s="15">
-        <f t="shared" si="32"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="M73" s="16">
-        <f>J73/SUM($J$33:$J$86)</f>
+        <f t="shared" si="35"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N73" s="16">
-        <f>K73/SUM($K$33:$K$86)</f>
+        <f t="shared" si="36"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O73" s="16">
-        <f t="shared" si="33"/>
-        <v>2.0270270270270271E-2</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -16049,20 +16108,20 @@
         <v>1</v>
       </c>
       <c r="L74" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="M74" s="16">
-        <f>J74/SUM($J$33:$J$86)</f>
+        <f t="shared" si="35"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N74" s="16">
-        <f>K74/SUM($K$33:$K$86)</f>
+        <f t="shared" si="36"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O74" s="16">
-        <f t="shared" si="33"/>
-        <v>2.7027027027027029E-2</v>
+        <f t="shared" si="37"/>
+        <v>3.5087719298245612E-2</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -16101,20 +16160,20 @@
         <v>1</v>
       </c>
       <c r="L75" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="M75" s="16">
-        <f>J75/SUM($J$33:$J$86)</f>
+        <f t="shared" si="35"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N75" s="16">
-        <f>K75/SUM($K$33:$K$86)</f>
+        <f t="shared" si="36"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O75" s="16">
-        <f t="shared" si="33"/>
-        <v>1.3513513513513514E-2</v>
+        <f t="shared" si="37"/>
+        <v>1.7543859649122806E-2</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -16153,20 +16212,20 @@
         <v>1</v>
       </c>
       <c r="L76" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="M76" s="16">
-        <f>J76/SUM($J$33:$J$86)</f>
+        <f t="shared" si="35"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N76" s="16">
-        <f>K76/SUM($K$33:$K$86)</f>
+        <f t="shared" si="36"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O76" s="16">
-        <f t="shared" si="33"/>
-        <v>4.0540540540540543E-2</v>
+        <f t="shared" si="37"/>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -16205,20 +16264,20 @@
         <v>1</v>
       </c>
       <c r="L77" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M77" s="16">
-        <f>J77/SUM($J$33:$J$86)</f>
+        <f t="shared" si="35"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N77" s="16">
-        <f>K77/SUM($K$33:$K$86)</f>
+        <f t="shared" si="36"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O77" s="16">
-        <f t="shared" si="33"/>
-        <v>6.7567567567567571E-3</v>
+        <f t="shared" si="37"/>
+        <v>8.771929824561403E-3</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -16226,7 +16285,7 @@
         <v>186</v>
       </c>
       <c r="B78" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" s="14">
         <f t="shared" si="17"/>
@@ -16257,20 +16316,20 @@
         <v>1</v>
       </c>
       <c r="L78" s="15">
-        <f t="shared" si="32"/>
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="M78" s="16">
-        <f>J78/SUM($J$33:$J$86)</f>
+        <f t="shared" si="35"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N78" s="16">
-        <f>K78/SUM($K$33:$K$86)</f>
+        <f t="shared" si="36"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O78" s="16">
-        <f t="shared" si="33"/>
-        <v>1.3513513513513514E-2</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -16278,7 +16337,7 @@
         <v>186</v>
       </c>
       <c r="B79" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" s="14">
         <f t="shared" si="17"/>
@@ -16309,20 +16368,20 @@
         <v>3</v>
       </c>
       <c r="L79" s="15">
-        <f t="shared" si="32"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="M79" s="16">
-        <f>J79/SUM($J$33:$J$86)</f>
+        <f t="shared" si="35"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N79" s="16">
-        <f>K79/SUM($K$33:$K$86)</f>
+        <f t="shared" si="36"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="O79" s="16">
-        <f t="shared" si="33"/>
-        <v>6.7567567567567571E-3</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -16361,20 +16420,20 @@
         <v>1</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M80" s="16">
-        <f>J80/SUM($J$33:$J$86)</f>
+        <f t="shared" si="35"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N80" s="16">
-        <f>K80/SUM($K$33:$K$86)</f>
+        <f t="shared" si="36"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O80" s="16">
-        <f t="shared" si="33"/>
-        <v>6.7567567567567571E-3</v>
+        <f t="shared" si="37"/>
+        <v>8.771929824561403E-3</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -16413,20 +16472,20 @@
         <v>1</v>
       </c>
       <c r="L81" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="M81" s="16">
-        <f>J81/SUM($J$33:$J$86)</f>
+        <f t="shared" si="35"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N81" s="16">
-        <f>K81/SUM($K$33:$K$86)</f>
+        <f t="shared" si="36"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O81" s="16">
-        <f t="shared" si="33"/>
-        <v>1.3513513513513514E-2</v>
+        <f t="shared" si="37"/>
+        <v>1.7543859649122806E-2</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -16465,20 +16524,20 @@
         <v>3</v>
       </c>
       <c r="L82" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="M82" s="16">
-        <f>J82/SUM($J$33:$J$86)</f>
+        <f t="shared" si="35"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N82" s="16">
-        <f>K82/SUM($K$33:$K$86)</f>
+        <f t="shared" si="36"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="O82" s="16">
-        <f t="shared" si="33"/>
-        <v>4.0540540540540543E-2</v>
+        <f t="shared" si="37"/>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -16486,7 +16545,7 @@
         <v>186</v>
       </c>
       <c r="B83" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" s="14">
         <f t="shared" si="17"/>
@@ -16517,20 +16576,20 @@
         <v>1</v>
       </c>
       <c r="L83" s="15">
-        <f t="shared" si="32"/>
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="M83" s="16">
-        <f>J83/SUM($J$33:$J$86)</f>
+        <f t="shared" si="35"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N83" s="16">
-        <f>K83/SUM($K$33:$K$86)</f>
+        <f t="shared" si="36"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O83" s="16">
-        <f t="shared" si="33"/>
-        <v>1.3513513513513514E-2</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -16538,7 +16597,7 @@
         <v>186</v>
       </c>
       <c r="B84" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="14">
         <f t="shared" si="17"/>
@@ -16569,20 +16628,20 @@
         <v>1</v>
       </c>
       <c r="L84" s="15">
-        <f t="shared" si="32"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="M84" s="16">
-        <f>J84/SUM($J$33:$J$86)</f>
+        <f t="shared" si="35"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N84" s="16">
-        <f>K84/SUM($K$33:$K$86)</f>
+        <f t="shared" si="36"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O84" s="16">
-        <f t="shared" si="33"/>
-        <v>2.0270270270270271E-2</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -16621,20 +16680,20 @@
         <v>1</v>
       </c>
       <c r="L85" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="M85" s="16">
-        <f>J85/SUM($J$33:$J$86)</f>
+        <f t="shared" si="35"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N85" s="16">
-        <f>K85/SUM($K$33:$K$86)</f>
+        <f t="shared" si="36"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O85" s="16">
-        <f t="shared" si="33"/>
-        <v>1.3513513513513514E-2</v>
+        <f t="shared" si="37"/>
+        <v>1.7543859649122806E-2</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -16673,20 +16732,20 @@
         <v>1</v>
       </c>
       <c r="L86" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="M86" s="16">
-        <f>J86/SUM($J$33:$J$86)</f>
+        <f t="shared" si="35"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N86" s="16">
-        <f>K86/SUM($K$33:$K$86)</f>
+        <f t="shared" si="36"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="O86" s="16">
-        <f t="shared" si="33"/>
-        <v>4.0540540540540543E-2</v>
+        <f t="shared" si="37"/>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="18.75">
@@ -16695,15 +16754,7 @@
       </c>
       <c r="B87" s="20">
         <f>COUNTIF($B$33:$B$86,3)</f>
-        <v>12</v>
-      </c>
-      <c r="E87" s="2">
-        <f>0.3*45</f>
-        <v>13.5</v>
-      </c>
-      <c r="K87" s="2">
-        <f>COUNTIF(K4:K86,3)</f>
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="18.75">
@@ -16712,11 +16763,7 @@
       </c>
       <c r="B88" s="20">
         <f>COUNTIF($B$33:$B$86,2)</f>
-        <v>10</v>
-      </c>
-      <c r="E88" s="2">
-        <f>0.4*45</f>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="18.75">
@@ -16725,44 +16772,65 @@
       </c>
       <c r="B89" s="20">
         <f>COUNTIF($B$33:$B$86,1)</f>
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="between">
       <formula>5</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="between">
       <formula>6</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
       <formula>12</formula>
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
       <formula>16</formula>
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>12</formula>
       <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:O86">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+      <formula>0.07</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:O28">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0.03</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:O86">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0.04</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16775,7 +16843,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Key.xlsx
+++ b/Key.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="615" windowWidth="19635" windowHeight="7425" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="615" windowWidth="19635" windowHeight="7425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="223">
   <si>
     <t>Description</t>
   </si>
@@ -685,6 +685,9 @@
   </si>
   <si>
     <t>raw_weight2</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1503,31 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Warning Text 2" xfId="52"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -12941,10 +12968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15"/>
@@ -13094,7 +13121,7 @@
       </c>
       <c r="O4" s="16">
         <f>L4/SUM($L$4:$L$28)</f>
-        <v>5.0632911392405063E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -13146,7 +13173,7 @@
       </c>
       <c r="O5" s="16">
         <f t="shared" ref="O5:O28" si="4">L5/SUM($L$4:$L$28)</f>
-        <v>2.5316455696202531E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -13198,7 +13225,7 @@
       </c>
       <c r="O6" s="16">
         <f t="shared" si="4"/>
-        <v>1.2658227848101266E-2</v>
+        <v>1.3157894736842105E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -13268,7 +13295,7 @@
       </c>
       <c r="O8" s="16">
         <f t="shared" si="4"/>
-        <v>5.0632911392405063E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -13320,7 +13347,7 @@
       </c>
       <c r="O9" s="16">
         <f t="shared" si="4"/>
-        <v>1.2658227848101266E-2</v>
+        <v>1.3157894736842105E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -13372,7 +13399,7 @@
       </c>
       <c r="O10" s="16">
         <f t="shared" si="4"/>
-        <v>2.5316455696202531E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -13442,7 +13469,7 @@
       </c>
       <c r="O12" s="16">
         <f t="shared" si="4"/>
-        <v>0.11392405063291139</v>
+        <v>0.11842105263157894</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -13494,7 +13521,7 @@
       </c>
       <c r="O13" s="16">
         <f t="shared" si="4"/>
-        <v>0.11392405063291139</v>
+        <v>0.11842105263157894</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -13546,7 +13573,7 @@
       </c>
       <c r="O14" s="16">
         <f t="shared" si="4"/>
-        <v>5.0632911392405063E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -13598,7 +13625,7 @@
       </c>
       <c r="O15" s="16">
         <f t="shared" si="4"/>
-        <v>5.0632911392405063E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -13650,7 +13677,7 @@
       </c>
       <c r="O16" s="16">
         <f t="shared" si="4"/>
-        <v>7.5949367088607597E-2</v>
+        <v>7.8947368421052627E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -13720,7 +13747,7 @@
       </c>
       <c r="O18" s="16">
         <f t="shared" si="4"/>
-        <v>7.5949367088607597E-2</v>
+        <v>7.8947368421052627E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -13772,7 +13799,7 @@
       </c>
       <c r="O19" s="16">
         <f t="shared" si="4"/>
-        <v>1.2658227848101266E-2</v>
+        <v>1.3157894736842105E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -13824,7 +13851,7 @@
       </c>
       <c r="O20" s="16">
         <f t="shared" si="4"/>
-        <v>3.7974683544303799E-2</v>
+        <v>3.9473684210526314E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -13876,7 +13903,7 @@
       </c>
       <c r="O21" s="16">
         <f t="shared" si="4"/>
-        <v>5.0632911392405063E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -13946,7 +13973,7 @@
       </c>
       <c r="O23" s="16">
         <f t="shared" si="4"/>
-        <v>2.5316455696202531E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -13954,7 +13981,7 @@
         <v>185</v>
       </c>
       <c r="B24" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="14">
         <f t="shared" si="0"/>
@@ -13986,7 +14013,7 @@
       </c>
       <c r="L24" s="15">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="16">
         <f t="shared" si="15"/>
@@ -13998,7 +14025,7 @@
       </c>
       <c r="O24" s="16">
         <f t="shared" si="4"/>
-        <v>1.2658227848101266E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -14050,7 +14077,7 @@
       </c>
       <c r="O25" s="16">
         <f t="shared" si="4"/>
-        <v>7.5949367088607597E-2</v>
+        <v>7.8947368421052627E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -14058,7 +14085,7 @@
         <v>185</v>
       </c>
       <c r="B26" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="14">
         <f t="shared" si="0"/>
@@ -14090,7 +14117,7 @@
       </c>
       <c r="L26" s="15">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26" s="16">
         <f t="shared" si="15"/>
@@ -14102,7 +14129,7 @@
       </c>
       <c r="O26" s="16">
         <f t="shared" si="4"/>
-        <v>2.5316455696202531E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -14154,7 +14181,7 @@
       </c>
       <c r="O27" s="16">
         <f t="shared" si="4"/>
-        <v>7.5949367088607597E-2</v>
+        <v>7.8947368421052627E-2</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -14206,7 +14233,7 @@
       </c>
       <c r="O28" s="16">
         <f t="shared" si="4"/>
-        <v>2.5316455696202531E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18.75">
@@ -14233,7 +14260,7 @@
       </c>
       <c r="B31" s="20">
         <f>COUNTIF($B$4:$B$28,1)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="9" customFormat="1" ht="18.75">
@@ -16775,62 +16802,77 @@
         <v>13</v>
       </c>
     </row>
+    <row r="90" spans="1:15" ht="18.75">
+      <c r="A90" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90" s="20">
+        <f>COUNTIF($B$33:$B$86,0)</f>
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="between">
       <formula>5</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="between">
       <formula>6</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="between">
       <formula>12</formula>
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="between">
       <formula>16</formula>
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="between">
       <formula>12</formula>
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:O86">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>0.07</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:O28">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0.03</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:O86">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.04</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+      <formula>12</formula>
+      <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16842,7 +16884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
